--- a/DecorLibaryDesigner/Testdata/DT_01LogintoDL.xlsx
+++ b/DecorLibaryDesigner/Testdata/DT_01LogintoDL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NuwanM\eclipseWorkPlace\DecorLibaryDesigner\Testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NuwanMaduranga\git\DecoLibSelenium\DecorLibaryDesigner\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C8EF10-86E8-41C7-870D-CCD616D83858}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62775CA6-A25E-49EE-ACB3-75A1905C445E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{335FE1CF-A67D-4350-AFDA-5632BEE56DD2}"/>
+    <workbookView xWindow="3720" yWindow="3744" windowWidth="16368" windowHeight="8616" xr2:uid="{335FE1CF-A67D-4350-AFDA-5632BEE56DD2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
     <t>Password</t>
   </si>
   <si>
-    <t>yuhan1@yopmail.com</t>
+    <t>thiwand1@yopmail.com</t>
   </si>
 </sst>
 </file>

--- a/DecorLibaryDesigner/Testdata/DT_01LogintoDL.xlsx
+++ b/DecorLibaryDesigner/Testdata/DT_01LogintoDL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NuwanMaduranga\git\DecoLibSelenium\DecorLibaryDesigner\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62775CA6-A25E-49EE-ACB3-75A1905C445E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC353028-3A05-4ABB-96FF-C56CCC42FD73}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="3744" windowWidth="16368" windowHeight="8616" xr2:uid="{335FE1CF-A67D-4350-AFDA-5632BEE56DD2}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="16368" windowHeight="8616" xr2:uid="{335FE1CF-A67D-4350-AFDA-5632BEE56DD2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
